--- a/Timesheets/2018-05-05.xlsx
+++ b/Timesheets/2018-05-05.xlsx
@@ -15,12 +15,11 @@
     <sheet name="timesheet.hourly" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <r>
       <t xml:space="preserve">Misc. Leave: *______ </t>
@@ -238,6 +237,9 @@
   </si>
   <si>
     <t>CAPR1JV</t>
+  </si>
+  <si>
+    <t>Demolder, Carl</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1473,6 +1475,97 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,97 +1598,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2080,7 +2083,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2124,7 +2127,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2151,8 +2154,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
@@ -2170,49 +2173,49 @@
       <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="12.95" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="0.95" hidden="1" customHeight="1">
       <c r="B4" s="8"/>
@@ -2253,33 +2256,35 @@
       <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="129"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
+      <c r="M6" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="155"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -2289,14 +2294,14 @@
       <c r="J7" s="14"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="133" t="s">
+      <c r="M7" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
     </row>
     <row r="8" spans="1:18" ht="11.1" customHeight="1">
       <c r="B8" s="11"/>
@@ -2339,10 +2344,10 @@
       <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="94" t="s">
@@ -2390,8 +2395,8 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="93">
         <v>41750</v>
       </c>
@@ -2439,7 +2444,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="141" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="53" t="s">
@@ -2447,25 +2452,41 @@
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="110"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="56"/>
+      <c r="F12" s="55">
+        <v>6</v>
+      </c>
+      <c r="G12" s="55">
+        <v>4</v>
+      </c>
+      <c r="H12" s="110">
+        <v>4.5</v>
+      </c>
+      <c r="I12" s="110">
+        <v>10</v>
+      </c>
+      <c r="J12" s="56">
+        <v>5</v>
+      </c>
       <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
+      <c r="L12" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="55">
+        <v>3.5</v>
+      </c>
       <c r="N12" s="55"/>
       <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
+      <c r="P12" s="110">
+        <v>5</v>
+      </c>
       <c r="Q12" s="56"/>
       <c r="R12" s="80">
         <f t="shared" ref="R12:R21" si="0">SUM(D12:Q12)</f>
-        <v>0</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B13" s="136"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="57" t="s">
         <v>32</v>
       </c>
@@ -2489,7 +2510,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" customHeight="1">
-      <c r="B14" s="135"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="61" t="s">
         <v>17</v>
       </c>
@@ -2513,7 +2534,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B15" s="136"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="57" t="s">
         <v>32</v>
       </c>
@@ -2537,7 +2558,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="B16" s="135"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="61" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2582,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B17" s="136"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="57" t="s">
         <v>32</v>
       </c>
@@ -2585,7 +2606,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="33" customHeight="1">
-      <c r="B18" s="135"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="61" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2630,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B19" s="136"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="57" t="s">
         <v>33</v>
       </c>
@@ -2633,7 +2654,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="33" customHeight="1">
-      <c r="B20" s="122"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="61" t="s">
         <v>17</v>
       </c>
@@ -2657,7 +2678,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B21" s="123"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="65" t="s">
         <v>32</v>
       </c>
@@ -2681,10 +2702,10 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="149"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="88">
         <f t="shared" ref="D22:Q22" si="1">SUM(D12:D21)</f>
         <v>0</v>
@@ -2695,23 +2716,23 @@
       </c>
       <c r="F22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="91">
         <f t="shared" si="1"/>
@@ -2719,11 +2740,11 @@
       </c>
       <c r="L22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N22" s="89">
         <f t="shared" si="1"/>
@@ -2735,7 +2756,7 @@
       </c>
       <c r="P22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="92">
         <f t="shared" si="1"/>
@@ -2743,14 +2764,14 @@
       </c>
       <c r="R22" s="83">
         <f>SUM(D22:Q22)</f>
-        <v>0</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="27" customHeight="1">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="119"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="68"/>
       <c r="E23" s="114"/>
       <c r="F23" s="69"/>
@@ -2771,10 +2792,10 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="27" customHeight="1">
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="153"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="68"/>
       <c r="E24" s="114"/>
       <c r="F24" s="69"/>
@@ -2795,10 +2816,10 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="27" customHeight="1">
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="153"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="68"/>
       <c r="E25" s="114"/>
       <c r="F25" s="69"/>
@@ -2819,10 +2840,10 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="29.1" customHeight="1" thickBot="1">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="121"/>
+      <c r="C26" s="151"/>
       <c r="D26" s="72"/>
       <c r="E26" s="115"/>
       <c r="F26" s="73"/>
@@ -2848,17 +2869,17 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="2:19" ht="15.95" customHeight="1">
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
       <c r="K28" s="30"/>
       <c r="R28" s="3"/>
     </row>
@@ -2883,7 +2904,9 @@
       <c r="E31" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="156">
+        <v>41765</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31"/>
       <c r="I31" s="17"/>
@@ -2904,10 +2927,10 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" s="142" t="s">
+      <c r="I32" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="143"/>
+      <c r="J32" s="145"/>
       <c r="K32" s="100" t="s">
         <v>34</v>
       </c>
@@ -2939,8 +2962,8 @@
       <c r="C33" s="50"/>
       <c r="G33" s="17"/>
       <c r="H33"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="138"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="140"/>
       <c r="K33" s="40"/>
       <c r="L33" s="41"/>
       <c r="M33" s="42"/>
@@ -2963,8 +2986,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="132"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="134"/>
       <c r="K34" s="44"/>
       <c r="L34" s="41"/>
       <c r="M34" s="42"/>
@@ -2985,8 +3008,8 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="132"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="134"/>
       <c r="K35" s="44"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
@@ -3007,8 +3030,8 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="132"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="134"/>
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
@@ -3028,8 +3051,8 @@
       <c r="F37" s="13"/>
       <c r="G37"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
@@ -3045,8 +3068,8 @@
       <c r="F38" s="17"/>
       <c r="G38" s="13"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -3083,15 +3106,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="M7:R7"/>
@@ -3102,13 +3116,22 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="M6:R6"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M6:R6"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
